--- a/biology/Médecine/Tony_Moilin/Tony_Moilin.xlsx
+++ b/biology/Médecine/Tony_Moilin/Tony_Moilin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Antoine Moilin dit Tony Moilin, né le 21 mai 1832 à Cosne-sur-Loire et fusillé le 28 mai 1871 au Jardin du Luxembourg, est un médecin et homme politique français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève puis assistant de Claude Bernard, Tony Moilin s'illustre, en 1865, par son dévouement au cours d'une épidémie de choléra et aussi par ses soins donnés aux pauvres dans les dispensaires de Paris sur la rue Rivoli et la rue de Seine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève puis assistant de Claude Bernard, Tony Moilin s'illustre, en 1865, par son dévouement au cours d'une épidémie de choléra et aussi par ses soins donnés aux pauvres dans les dispensaires de Paris sur la rue Rivoli et la rue de Seine.
 En 1869, il rédige une utopie, Paris en l'an 2000, texte dans lequel il décrit ce que pourrait devenir la capitale au siècle prochain. Les rues-galeries qu'il décrit sont largement inspirées par l'œuvre de Charles Fourier.
-En août 1870, il comparait avec une cinquantaine d'autres accusés devant une haute cour de justice qui le condamne à cinq ans de prison pour participation à un prétendu complot contre la vie de Napoléon III. Il est libéré un mois plus tard avec la chute de l'empire. En janvier 1871, il est l'un des 140 signataires de l'Affiche rouge, appelant à la constitution de la « Commune »[2].
+En août 1870, il comparait avec une cinquantaine d'autres accusés devant une haute cour de justice qui le condamne à cinq ans de prison pour participation à un prétendu complot contre la vie de Napoléon III. Il est libéré un mois plus tard avec la chute de l'empire. En janvier 1871, il est l'un des 140 signataires de l'Affiche rouge, appelant à la constitution de la « Commune ».
 En 1871, il prend part à la Commune de Paris comme chirurgien-major du 193e bataillon de la Garde Nationale.  Il fait office de maire du 6e arrondissement de Paris pendant quelques jours. Fait prisonnier le 27 mai après avoir été dénoncé, il est condamné à mort le jour même par une cour martiale et fusillé le lendemain au jardin du Luxembourg. Sur l'insistance d'Anne-Charles Hérisson, maire du 6e arrondissement, il obtient d’épouser, deux heures avant son exécution, sa compagne Lucie Marie Repiquet, enceinte. Malgré la promesse reçue, son corps ne fut pas restitué à sa veuve mais jeté à la fosse commune pour éviter que sa sépulture ne devienne un lieu de glorification de la Commune.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médecine physiologique : maladies des voies respiratoires : maladies des fosses nasales, de la gorge, du larynx, et de la poitrine, Paris, Adrien Delahaye, 1867, xi, 307, 23 cm (OCLC 876572991, lire en ligne)Ouvrage ayant fait l’objet d’une traduction en espagnol.
 Programme de discussion pour les sociétés populaires, Paris, Gaittet, 1868, 8 p., in-8° (OCLC 457988131, lire en ligne).
@@ -579,7 +595,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tony Moilin est cité dans la chanson Elle n'est pas morte ! d'Eugène Pottier.
 </t>
